--- a/xlsx/科技_intext.xlsx
+++ b/xlsx/科技_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>政策_政策_加州_科技</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
 </sst>
 </file>
